--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2761109.768097996</v>
+        <v>2754092.753206286</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242967.44094561</v>
+        <v>9242967.440945614</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>264.2615197249575</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.389005322401673</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>122.0287160490814</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>123.2264323245079</v>
       </c>
       <c r="H5" t="n">
-        <v>146.9093365844865</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>46.36452066793958</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>367.5724187127481</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>317.7603911582219</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>68.49439899867205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>79.4873442018814</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>36.98273601213736</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.22713333968144</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.776322813356403</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>153.3868338106978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.964516789691</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.4314237113292</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>32.58362141034563</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.27951805532942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.6951870029955</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>114.3785572711834</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>166.6971395948099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>74.81067239650272</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>215.949554896505</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9626531777715</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505273936</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>75.71276588040871</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>25.82923535834151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>33.252935396387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>182.8414065694712</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>243.6741462533554</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.103316533936</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.103316533936</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>738.8376179271852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>738.8376179271852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4342,16 +4342,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>456.720996298112</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>456.720996298112</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>456.720996298112</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>456.720996298112</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>456.720996298112</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.939751500713</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.977234560301</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D5" t="n">
-        <v>780.7115359535505</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E5" t="n">
-        <v>780.7115359535505</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F5" t="n">
-        <v>369.725631163943</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G5" t="n">
-        <v>355.8022271025339</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,40 +4655,40 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.878965009939</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.177966138803</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.177966138803</v>
+        <v>395.781978709989</v>
       </c>
       <c r="D8" t="n">
-        <v>1254.177966138803</v>
+        <v>395.781978709989</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>395.781978709989</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>388.8364779607855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>374.9130738993765</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473039</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473039</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202925</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202925</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202925</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610019</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C10" t="n">
-        <v>270.019190933095</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610019</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610019</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610019</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610019</v>
+        <v>618.4218183914891</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610019</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226426</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947357</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947357</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028589</v>
@@ -5202,49 +5202,49 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688086</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799379</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471208</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1461.559971555745</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1461.559971555745</v>
       </c>
       <c r="U13" t="n">
-        <v>1256.342590433373</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="V13" t="n">
-        <v>1256.342590433373</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="W13" t="n">
-        <v>966.9254203964125</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="X13" t="n">
-        <v>966.9254203964125</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528824</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395484</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>544.6416868225887</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C16" t="n">
-        <v>544.6416868225887</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028589</v>
@@ -5442,7 +5442,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>976.127143012122</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617345004</v>
+        <v>976.127143012122</v>
       </c>
       <c r="X16" t="n">
-        <v>765.4342659661188</v>
+        <v>748.1375921141047</v>
       </c>
       <c r="Y16" t="n">
-        <v>544.6416868225887</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028589</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452865</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359329</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3203.97430663929</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4008.385884903441</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.72267491637</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028589</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706323</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>531.3977182706323</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,13 +5743,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,16 +5767,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3886.516115720546</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491672</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.859459491672</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4516.946710592333</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4516.946710592333</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>4516.946710592333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4288.957159694316</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>4068.164580550786</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>904.3190116155904</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005286</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028589</v>
@@ -6183,16 +6183,16 @@
         <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247865</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W25" t="n">
-        <v>674.7185717878258</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X25" t="n">
-        <v>674.7185717878258</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>453.9259926442957</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3854.399203208425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3854.399203208425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3854.399203208425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3854.399203208425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4371.805924143403</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4082.388754106442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3854.399203208425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>3854.399203208425</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,28 +6487,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2649.889045452862</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>2896.654173359326</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3973.880983602624</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4243.691493887078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4074.75531095917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3924.638671546835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3924.638671546835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380598</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4692.473623928625</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4692.473623928625</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4464.484073030608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4243.691493887078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.598437470156</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1423.349934803859</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1423.349934803859</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1423.349934803859</v>
+        <v>1080.865396941632</v>
       </c>
       <c r="U34" t="n">
-        <v>1423.349934803859</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V34" t="n">
-        <v>1168.665446597972</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W34" t="n">
-        <v>879.2482765610114</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X34" t="n">
-        <v>879.2482765610114</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y34" t="n">
-        <v>879.2482765610114</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2396.42075591874</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2807.311024763253</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>3054.076152669717</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>3361.396285949678</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3691.258913613711</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.72267491637</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4000.816194683226</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3831.880011755319</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3681.763372342983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3681.763372342983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.149147719352</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4182.464659513465</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4182.464659513465</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4182.464659513465</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4182.464659513465</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155876</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805456</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822448</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>735.0407559057232</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.3704617344956</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C40" t="n">
-        <v>751.4342788065887</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D40" t="n">
-        <v>601.317639394253</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E40" t="n">
-        <v>453.4045458118599</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>273.72523663794</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>123.3072281858833</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,46 +7338,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799321</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471148</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557898</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771456</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771456</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344956</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>920.3704617344956</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.3704617344956</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>964.135741824786</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W43" t="n">
-        <v>930.5469181920719</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X43" t="n">
-        <v>930.5469181920719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.7543390485417</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,46 +7651,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1314.22798109379</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1059.543492887903</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W46" t="n">
-        <v>770.1263228509424</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X46" t="n">
-        <v>542.1367719529251</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.1367719529251</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270198</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627893</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>308.1251096272023</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>73.5320452466986</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9415,13 +9415,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627447</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M21" t="n">
-        <v>360.5026862907249</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>360.5026862907248</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>444.4889386861663</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>414.500217918085</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>20.63789864135461</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>76.43196988338491</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>160.9380739714659</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>244.0102190588959</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>242.3613205104716</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>72.32282157833939</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.40055647060809</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>253.6537309882317</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.5524621266079</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24423,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>18.01446838604167</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.04249075174785</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>85.44050372901813</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.15368000729008</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>5.598006161884257</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.45839484515973</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.443463484117702e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>69.70828214252253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>84.59001010593045</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>253.270062940204</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>103.3959458291061</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>8.463497070472584</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789187.0574408493</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982132</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="K2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="L2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768968</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007432</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007452</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007399</v>
+        <v>7916.731656007416</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007414</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.73165600738</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007488</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.73165600738</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871667</v>
@@ -26484,31 +26484,31 @@
         <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956619</v>
+        <v>-204962.678595662</v>
       </c>
       <c r="C6" t="n">
+        <v>385005.2006188824</v>
+      </c>
+      <c r="D6" t="n">
         <v>385005.200618882</v>
       </c>
-      <c r="D6" t="n">
-        <v>385005.2006188831</v>
-      </c>
       <c r="E6" t="n">
-        <v>-38520.50447505813</v>
+        <v>-39495.09573477902</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.5320018393</v>
+        <v>485664.9407421173</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421171</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018386</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018386</v>
+        <v>485664.9407421169</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.312809246</v>
+        <v>309241.7215495244</v>
       </c>
       <c r="K6" t="n">
-        <v>486639.5320018393</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="L6" t="n">
-        <v>486639.5320018386</v>
+        <v>485664.9407421174</v>
       </c>
       <c r="M6" t="n">
-        <v>351838.5167680014</v>
+        <v>350863.9255082799</v>
       </c>
       <c r="N6" t="n">
-        <v>486639.5320018391</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="O6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421171</v>
       </c>
       <c r="P6" t="n">
-        <v>486639.5320018387</v>
+        <v>485664.9407421175</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
@@ -26807,7 +26807,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253574</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370142</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>142.6145260167539</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>158.8578157762262</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>103.0063894090029</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>290.5577376962871</v>
       </c>
       <c r="H5" t="n">
-        <v>177.0134361798707</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>178.6705847901447</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>14.35795135951366</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>6.162381606135227</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>80.1210740195403</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2223111871558</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.331676654005825e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.088413291423442e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.06959120681447e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.545830542411375e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,16 +31761,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31779,19 +31779,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31846,19 +31846,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31867,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,19 +31931,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31952,7 +31952,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35430,10 +35430,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299119</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799286</v>
@@ -35579,16 +35579,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>618.5494866776687</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
@@ -35974,13 +35974,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>355.8957474878068</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36135,13 +36135,13 @@
         <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349813</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M21" t="n">
-        <v>670.9270633411912</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36220,7 +36220,7 @@
         <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
@@ -36685,13 +36685,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>693.6972596887377</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>754.9133157366324</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.702428529897</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>747.6947913160977</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.54807759626124</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>325.6896748394092</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799242</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>495.6240934217708</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2754092.753206286</v>
+        <v>2759032.016055317</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242967.440945614</v>
+        <v>9242967.440945612</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>354.752216257426</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>82.59957183215704</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8.389005322401673</v>
+        <v>8.389005322401561</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>123.2264323245079</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.98934863366345</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>12.85943393303082</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>317.7603911582219</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.4873442018814</v>
+        <v>108.6100941567957</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896919</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>36.98273601213736</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>129.0019285904851</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>101.9166902817497</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9.776322813356403</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
-        <v>206.8064269214864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>207.6951870029955</v>
+        <v>139.6397450201833</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>215.949554896505</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>67.62960647440867</v>
       </c>
       <c r="I40" t="n">
-        <v>25.82923535834151</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
-        <v>243.6741462533554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2465.942913862886</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4375,7 +4375,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629043</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C4" t="n">
         <v>498.8626623130036</v>
@@ -4476,64 +4476,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3596263316971</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E5" t="n">
-        <v>185.3596263316971</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F5" t="n">
-        <v>178.4141255824937</v>
+        <v>233.4428150520005</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>219.5194109905914</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504007</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>395.781978709989</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>395.781978709989</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>395.781978709989</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F8" t="n">
-        <v>388.8364779607855</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>374.9130738993765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4983,25 +4983,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
         <v>618.4218183914891</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.7828679390639</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688086</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799379</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1461.559971555745</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1461.559971555745</v>
+        <v>1168.691282099228</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.431332769303</v>
+        <v>1168.691282099228</v>
       </c>
       <c r="V13" t="n">
-        <v>1172.431332769303</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="W13" t="n">
-        <v>1172.431332769303</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.431332769303</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y13" t="n">
-        <v>1172.431332769303</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705745</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705745</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705745</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705745</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5433,13 +5433,13 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>976.127143012122</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W16" t="n">
-        <v>976.127143012122</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X16" t="n">
-        <v>748.1375921141047</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705745</v>
+        <v>1075.210845262961</v>
       </c>
     </row>
     <row r="17">
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188996</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188996</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>579.400204154918</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905256</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1080.865396941632</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>791.73675815519</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>537.0522699493032</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>247.6350999123426</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.9005583181194</v>
+        <v>333.7051469529993</v>
       </c>
       <c r="C40" t="n">
-        <v>441.9005583181194</v>
+        <v>333.7051469529993</v>
       </c>
       <c r="D40" t="n">
-        <v>441.9005583181194</v>
+        <v>333.7051469529993</v>
       </c>
       <c r="E40" t="n">
-        <v>441.9005583181194</v>
+        <v>333.7051469529993</v>
       </c>
       <c r="F40" t="n">
-        <v>441.9005583181194</v>
+        <v>333.7051469529993</v>
       </c>
       <c r="G40" t="n">
-        <v>273.72523663794</v>
+        <v>165.5298252728199</v>
       </c>
       <c r="H40" t="n">
-        <v>123.3072281858833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="X40" t="n">
-        <v>441.9005583181194</v>
+        <v>736.1461909267691</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.9005583181194</v>
+        <v>515.353611783239</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7593,22 +7593,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954972</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>963.6521305054455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>674.2349604684848</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445216</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>160.9380739714659</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>92.54563246790414</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>77.91528990018756</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>242.3613205104716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
-        <v>14.74113413690284</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>18.01446838604167</v>
+        <v>86.0699103688539</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.598006161884257</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>81.28422189312745</v>
       </c>
       <c r="I40" t="n">
-        <v>84.59001010593045</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
-        <v>8.463497070472584</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982127</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065631</v>
@@ -26331,31 +26331,31 @@
         <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
-      </c>
       <c r="J2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="K2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,28 +26426,28 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007432</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007452</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007416</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007481</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007414</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007414</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.73165600748</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007396</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007481</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.678595662</v>
+        <v>-204962.6785956619</v>
       </c>
       <c r="C6" t="n">
-        <v>385005.2006188824</v>
+        <v>385005.2006188821</v>
       </c>
       <c r="D6" t="n">
-        <v>385005.200618882</v>
+        <v>385005.2006188825</v>
       </c>
       <c r="E6" t="n">
-        <v>-39495.09573477902</v>
+        <v>-38617.96360102958</v>
       </c>
       <c r="F6" t="n">
-        <v>485664.9407421173</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="G6" t="n">
-        <v>485664.9407421171</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="H6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="I6" t="n">
-        <v>485664.9407421169</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="J6" t="n">
-        <v>309241.7215495244</v>
+        <v>310118.853683274</v>
       </c>
       <c r="K6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="L6" t="n">
-        <v>485664.9407421174</v>
+        <v>486542.072875867</v>
       </c>
       <c r="M6" t="n">
-        <v>350863.9255082799</v>
+        <v>351741.0576420293</v>
       </c>
       <c r="N6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="O6" t="n">
-        <v>485664.9407421171</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="P6" t="n">
-        <v>485664.9407421175</v>
+        <v>486542.0728758667</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541004</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,28 +26798,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="L4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.52067551358152</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>303.6383668238965</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>158.8578157762262</v>
+        <v>158.8578157762263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>290.5577376962871</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>311.9334241306937</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>394.0166118086806</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>6.162381606135227</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>146.2223111871558</v>
+        <v>117.0995612322415</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.331676654005825e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.545830542411375e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299119</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109073</v>
@@ -36135,7 +36135,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109124</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.580930408112</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349813</v>
